--- a/saidi_saifi/data/data_saidi.xlsx
+++ b/saidi_saifi/data/data_saidi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_ECC587F97A9D2BE161AF94000ABB929BC6171CE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887D5282-A90F-4B0A-BBF8-A5CF638CB776}"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="105" windowWidth="14806" windowHeight="8012"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Promedio Nal.</t>
   </si>
@@ -104,12 +105,15 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +194,208 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,9 +449,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,7 +521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,19 +694,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -509,7 +714,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
@@ -525,7 +730,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -541,7 +746,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -555,7 +760,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
@@ -569,27 +774,35 @@
         <v>80.23</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="7">
         <v>89.31</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="7">
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -605,7 +818,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -621,7 +834,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -637,7 +850,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -653,7 +866,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
@@ -669,7 +882,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -685,7 +898,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -701,7 +914,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -717,7 +930,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
@@ -733,7 +946,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -749,7 +962,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
@@ -765,7 +978,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -781,7 +994,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
@@ -797,7 +1010,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
@@ -813,7 +1026,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -829,7 +1042,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
@@ -845,7 +1058,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -861,7 +1074,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
@@ -877,7 +1090,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
@@ -893,7 +1106,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
@@ -909,7 +1122,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
@@ -925,7 +1138,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
@@ -941,7 +1154,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
@@ -957,7 +1170,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
@@ -972,6 +1185,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:C31">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D31">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
